--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gdf1-Bmpr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gdf1-Bmpr1a.xlsx
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.330485333333333</v>
+        <v>6.101885666666667</v>
       </c>
       <c r="N2">
-        <v>6.991456</v>
+        <v>18.305657</v>
       </c>
       <c r="O2">
-        <v>0.03655621216383393</v>
+        <v>0.1093737608697887</v>
       </c>
       <c r="P2">
-        <v>0.03655621216383394</v>
+        <v>0.1093737608697887</v>
       </c>
       <c r="Q2">
-        <v>0.615220162176</v>
+        <v>1.610824593372</v>
       </c>
       <c r="R2">
-        <v>5.536981459584</v>
+        <v>14.497421340348</v>
       </c>
       <c r="S2">
-        <v>0.03655621216383393</v>
+        <v>0.1093737608697887</v>
       </c>
       <c r="T2">
-        <v>0.03655621216383394</v>
+        <v>0.1093737608697887</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,25 +626,25 @@
         <v>29.178763</v>
       </c>
       <c r="N3">
-        <v>87.536289</v>
+        <v>87.53628900000001</v>
       </c>
       <c r="O3">
-        <v>0.4577008212193114</v>
+        <v>0.5230171820937495</v>
       </c>
       <c r="P3">
-        <v>0.4577008212193115</v>
+        <v>0.5230171820937495</v>
       </c>
       <c r="Q3">
-        <v>7.702843286844</v>
+        <v>7.702843286844001</v>
       </c>
       <c r="R3">
-        <v>69.32558958159599</v>
+        <v>69.32558958159601</v>
       </c>
       <c r="S3">
-        <v>0.4577008212193114</v>
+        <v>0.5230171820937495</v>
       </c>
       <c r="T3">
-        <v>0.4577008212193115</v>
+        <v>0.5230171820937495</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,34 +679,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.3937893333333333</v>
+        <v>0.146644</v>
       </c>
       <c r="N4">
-        <v>1.181368</v>
+        <v>0.439932</v>
       </c>
       <c r="O4">
-        <v>0.006177016525822971</v>
+        <v>0.002628532664354407</v>
       </c>
       <c r="P4">
-        <v>0.006177016525822972</v>
+        <v>0.002628532664354407</v>
       </c>
       <c r="Q4">
-        <v>0.103955658528</v>
+        <v>0.038712256272</v>
       </c>
       <c r="R4">
-        <v>0.935600926752</v>
+        <v>0.348410306448</v>
       </c>
       <c r="S4">
-        <v>0.006177016525822971</v>
+        <v>0.002628532664354407</v>
       </c>
       <c r="T4">
-        <v>0.006177016525822972</v>
+        <v>0.002628532664354407</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.67565866666667</v>
+        <v>15.02284966666667</v>
       </c>
       <c r="N5">
-        <v>65.026976</v>
+        <v>45.068549</v>
       </c>
       <c r="O5">
-        <v>0.340006420841172</v>
+        <v>0.2692783275177917</v>
       </c>
       <c r="P5">
-        <v>0.3400064208411721</v>
+        <v>0.2692783275177917</v>
       </c>
       <c r="Q5">
-        <v>5.722113780096</v>
+        <v>3.965852037804</v>
       </c>
       <c r="R5">
-        <v>51.49902402086401</v>
+        <v>35.692668340236</v>
       </c>
       <c r="S5">
-        <v>0.340006420841172</v>
+        <v>0.2692783275177917</v>
       </c>
       <c r="T5">
-        <v>0.3400064208411721</v>
+        <v>0.2692783275177917</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.749056666666666</v>
+        <v>5.288900666666667</v>
       </c>
       <c r="N6">
-        <v>29.24717</v>
+        <v>15.866702</v>
       </c>
       <c r="O6">
-        <v>0.1529246199520842</v>
+        <v>0.09480134312252211</v>
       </c>
       <c r="P6">
-        <v>0.1529246199520842</v>
+        <v>0.09480134312252211</v>
       </c>
       <c r="Q6">
-        <v>2.57363397132</v>
+        <v>1.396206309192</v>
       </c>
       <c r="R6">
-        <v>23.16270574188</v>
+        <v>12.565856782728</v>
       </c>
       <c r="S6">
-        <v>0.1529246199520842</v>
+        <v>0.09480134312252211</v>
       </c>
       <c r="T6">
-        <v>0.1529246199520842</v>
+        <v>0.09480134312252211</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -871,28 +871,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.4229803333333333</v>
+        <v>0.050258</v>
       </c>
       <c r="N7">
-        <v>1.268941</v>
+        <v>0.150774</v>
       </c>
       <c r="O7">
-        <v>0.006634909297775397</v>
+        <v>0.0009008537317934847</v>
       </c>
       <c r="P7">
-        <v>0.006634909297775398</v>
+        <v>0.0009008537317934848</v>
       </c>
       <c r="Q7">
-        <v>0.111661732236</v>
+        <v>0.013267508904</v>
       </c>
       <c r="R7">
-        <v>1.004955590124</v>
+        <v>0.119407580136</v>
       </c>
       <c r="S7">
-        <v>0.006634909297775397</v>
+        <v>0.0009008537317934847</v>
       </c>
       <c r="T7">
-        <v>0.006634909297775398</v>
+        <v>0.0009008537317934848</v>
       </c>
     </row>
   </sheetData>
